--- a/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
+++ b/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
@@ -7131,7 +7131,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7159,7 +7159,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7187,7 +7187,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>

--- a/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
+++ b/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
@@ -15,8 +15,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D51">
+      <text>
+        <t xml:space="preserve">かく
+	-yuga kisara</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="698">
   <si>
     <t>Section 0 - Roll Call</t>
   </si>
@@ -4400,6 +4416,9 @@
     <t>If not, please explain briefly:</t>
   </si>
   <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>Ecological</t>
   </si>
   <si>
@@ -4484,16 +4503,16 @@
 4 - High diversity</t>
   </si>
   <si>
+    <t>アオリイカ。</t>
+  </si>
+  <si>
+    <t>E - No data</t>
+  </si>
+  <si>
+    <t>Genetic diversity enhances the potential for adaptation and confers resilience to climate change by increasing the adaptive capacity of a species, thereby providing an expanded suite of functional responses that can offer mechanisms for plasticity or evolution (Jørgensen et al., 2007; Pinsky &amp; Palumbi, 2014).</t>
+  </si>
+  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>No data</t>
-  </si>
-  <si>
-    <t>E - No data</t>
-  </si>
-  <si>
-    <t>Genetic diversity enhances the potential for adaptation and confers resilience to climate change by increasing the adaptive capacity of a species, thereby providing an expanded suite of functional responses that can offer mechanisms for plasticity or evolution (Jørgensen et al., 2007; Pinsky &amp; Palumbi, 2014).</t>
   </si>
   <si>
     <t>4.1.3.2</t>
@@ -4817,10 +4836,10 @@
 4 - Strongly connected</t>
   </si>
   <si>
-    <t>NA - Not relevant in this system</t>
-  </si>
-  <si>
     <t>A functional network of connected and unfragmented ecosystem components, which provide greater opportunities for movement, migration, and changes in distribution, are essential to the resilience of a population if the loss of an ecosystem component due to climate associated impacts or an ecosystem shock occurs. Strong connectivity supports ecosystem function and the movement or regeneration of nutrients, energy, and organisms (Kinlan &amp; Gaines, 2003).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target pelagic species, Tsugaru channel = fishing ground is unique but fluid </t>
   </si>
   <si>
     <t>4.1.2.3</t>
@@ -5735,7 +5754,8 @@
 4 - Strong leadership</t>
   </si>
   <si>
-    <t>originator</t>
+    <t xml:space="preserve">朝のミーティングで話し合って網を上げるか決める。
+</t>
   </si>
   <si>
     <t>Leadership is necessary to activate or position latent assets to produce a common good (e.g., social capital; Crona et al., 2017), support self-organization (Ostrom, 2009), and increase compliance and buy-in (Gutierrez et al., 2011). Leaders who take initiative are able to quickly and effectively catalyze action after a disruption and strategically plan for longer-term needs, thereby increasing system stability, responsiveness, and adaptive capacity.</t>
@@ -5770,6 +5790,9 @@
       </rPr>
       <t xml:space="preserve"> in governance of the fishery case you are examining. If this is a critical domain, please indicate details of how its associated attributes exist and are maintained in the system (i.e., how it has been operationalized).</t>
     </r>
+  </si>
+  <si>
+    <t>originator</t>
   </si>
   <si>
     <t>Section 5 - Capacity of Systems to Improve Climate resilience</t>
@@ -7131,7 +7154,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7159,7 +7182,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7187,7 +7210,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7215,7 +7238,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -14569,7 +14592,9 @@
       <c r="O6" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="P6" s="41"/>
+      <c r="P6" s="42" t="s">
+        <v>406</v>
+      </c>
       <c r="Q6" s="65"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
@@ -14593,26 +14618,26 @@
     </row>
     <row r="7" ht="222.0" customHeight="1">
       <c r="A7" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C7" s="144"/>
       <c r="D7" s="144" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E7" s="145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G7" s="147">
         <v>3.0</v>
       </c>
       <c r="H7" s="147" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I7" s="148"/>
       <c r="J7" s="148"/>
@@ -14620,16 +14645,16 @@
         <v>41</v>
       </c>
       <c r="L7" s="149" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M7" s="147" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N7" s="150" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O7" s="146" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P7" s="151"/>
       <c r="Q7" s="148"/>
@@ -14655,47 +14680,47 @@
     </row>
     <row r="8" ht="75.75" customHeight="1">
       <c r="A8" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D8" s="144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E8" s="145" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F8" s="144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G8" s="152">
         <v>4.0</v>
       </c>
       <c r="H8" s="147" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I8" s="153" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J8" s="75"/>
       <c r="K8" s="146" t="s">
         <v>41</v>
       </c>
       <c r="L8" s="146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M8" s="154" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N8" s="144" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O8" s="146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P8" s="74"/>
       <c r="Q8" s="75"/>
@@ -14721,25 +14746,25 @@
     </row>
     <row r="9">
       <c r="A9" s="155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B9" s="155" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C9" s="155" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D9" s="155" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E9" s="156" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F9" s="155" t="s">
-        <v>428</v>
-      </c>
-      <c r="G9" s="157" t="s">
         <v>429</v>
+      </c>
+      <c r="G9" s="157">
+        <v>2.0</v>
       </c>
       <c r="H9" s="158" t="s">
         <v>430</v>
@@ -14750,13 +14775,13 @@
         <v>431</v>
       </c>
       <c r="L9" s="157" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M9" s="159" t="s">
         <v>432</v>
       </c>
       <c r="N9" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O9" s="77"/>
       <c r="P9" s="160"/>
@@ -14783,28 +14808,28 @@
     </row>
     <row r="10">
       <c r="A10" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B10" s="144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C10" s="144" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D10" s="144" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E10" s="145" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F10" s="144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G10" s="161">
         <v>4.0</v>
       </c>
       <c r="H10" s="147" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I10" s="153"/>
       <c r="J10" s="75"/>
@@ -14812,16 +14837,16 @@
         <v>41</v>
       </c>
       <c r="L10" s="146" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M10" s="162" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N10" s="144" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O10" s="163" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P10" s="74"/>
       <c r="Q10" s="75"/>
@@ -14847,22 +14872,22 @@
     </row>
     <row r="11" ht="75.0" customHeight="1">
       <c r="A11" s="164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B11" s="164" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C11" s="164"/>
       <c r="D11" s="165"/>
       <c r="E11" s="166" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F11" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G11" s="165"/>
       <c r="H11" s="167" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I11" s="165"/>
       <c r="J11" s="165"/>
@@ -14895,28 +14920,28 @@
     </row>
     <row r="12">
       <c r="A12" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C12" s="144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D12" s="144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E12" s="146" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F12" s="144" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G12" s="152">
         <v>3.0</v>
       </c>
       <c r="H12" s="169" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
@@ -14924,16 +14949,16 @@
         <v>41</v>
       </c>
       <c r="L12" s="170" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M12" s="146" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N12" s="146" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O12" s="153" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P12" s="74"/>
       <c r="Q12" s="75"/>
@@ -14959,45 +14984,45 @@
     </row>
     <row r="13">
       <c r="A13" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C13" s="144" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D13" s="144" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E13" s="146" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F13" s="144" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G13" s="146">
         <v>2.0</v>
       </c>
       <c r="H13" s="169" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
       <c r="K13" s="146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L13" s="170" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M13" s="154" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N13" s="146" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O13" s="98" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P13" s="98"/>
       <c r="Q13" s="75"/>
@@ -15023,45 +15048,45 @@
     </row>
     <row r="14">
       <c r="A14" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B14" s="144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C14" s="144" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D14" s="144" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E14" s="146" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F14" s="144" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G14" s="146">
         <v>2.0</v>
       </c>
       <c r="H14" s="153" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I14" s="144"/>
       <c r="J14" s="144"/>
       <c r="K14" s="146" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L14" s="146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M14" s="146" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N14" s="146" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O14" s="153" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P14" s="74"/>
       <c r="Q14" s="75"/>
@@ -15087,26 +15112,26 @@
     </row>
     <row r="15">
       <c r="A15" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B15" s="144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C15" s="144"/>
       <c r="D15" s="144" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E15" s="146" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F15" s="75" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G15" s="153">
         <v>4.0</v>
       </c>
       <c r="H15" s="171" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
@@ -15114,13 +15139,13 @@
         <v>41</v>
       </c>
       <c r="L15" s="170" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M15" s="146" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N15" s="153" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O15" s="144"/>
       <c r="P15" s="74"/>
@@ -15147,28 +15172,28 @@
     </row>
     <row r="16">
       <c r="A16" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C16" s="144" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D16" s="144" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E16" s="146" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F16" s="144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G16" s="172">
         <v>2.0</v>
       </c>
       <c r="H16" s="173" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I16" s="174"/>
       <c r="J16" s="174"/>
@@ -15176,10 +15201,10 @@
         <v>41</v>
       </c>
       <c r="L16" s="176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M16" s="154" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N16" s="175"/>
       <c r="O16" s="75"/>
@@ -15207,22 +15232,22 @@
     </row>
     <row r="17">
       <c r="A17" s="155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B17" s="155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C17" s="155" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D17" s="155" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E17" s="157" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F17" s="155" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G17" s="157">
         <v>3.0</v>
@@ -15233,16 +15258,16 @@
       <c r="I17" s="155"/>
       <c r="J17" s="155"/>
       <c r="K17" s="157" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L17" s="157" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M17" s="159" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N17" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="160"/>
@@ -15269,22 +15294,22 @@
     </row>
     <row r="18">
       <c r="A18" s="155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B18" s="155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C18" s="155" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D18" s="155" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E18" s="157" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F18" s="155" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G18" s="157">
         <v>2.0</v>
@@ -15293,16 +15318,16 @@
       <c r="I18" s="155"/>
       <c r="J18" s="155"/>
       <c r="K18" s="157" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L18" s="157" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M18" s="159" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N18" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O18" s="77"/>
       <c r="P18" s="160"/>
@@ -15329,22 +15354,22 @@
     </row>
     <row r="19">
       <c r="A19" s="164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B19" s="164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C19" s="164"/>
       <c r="D19" s="165"/>
       <c r="E19" s="166" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F19" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G19" s="165"/>
       <c r="H19" s="167" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I19" s="165"/>
       <c r="J19" s="165"/>
@@ -15377,43 +15402,45 @@
     </row>
     <row r="20">
       <c r="A20" s="155" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B20" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C20" s="155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D20" s="155" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E20" s="157" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F20" s="155" t="s">
-        <v>490</v>
-      </c>
-      <c r="G20" s="157"/>
+        <v>491</v>
+      </c>
+      <c r="G20" s="157">
+        <v>3.0</v>
+      </c>
       <c r="H20" s="77"/>
-      <c r="I20" s="155" t="s">
-        <v>349</v>
-      </c>
+      <c r="I20" s="155"/>
       <c r="J20" s="77"/>
       <c r="K20" s="157" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="L20" s="83" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="M20" s="159" t="s">
         <v>492</v>
       </c>
       <c r="N20" s="177" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O20" s="77"/>
-      <c r="P20" s="160"/>
+      <c r="P20" s="100" t="s">
+        <v>493</v>
+      </c>
       <c r="Q20" s="77"/>
       <c r="R20" s="77"/>
       <c r="S20" s="77"/>
@@ -15437,40 +15464,42 @@
     </row>
     <row r="21">
       <c r="A21" s="144" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B21" s="144" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C21" s="144" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D21" s="144" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E21" s="146" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F21" s="144" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G21" s="161">
         <v>4.0</v>
       </c>
       <c r="H21" s="169" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I21" s="75"/>
       <c r="J21" s="75"/>
       <c r="K21" s="146" t="s">
-        <v>457</v>
-      </c>
-      <c r="L21" s="146"/>
+        <v>458</v>
+      </c>
+      <c r="L21" s="146" t="s">
+        <v>450</v>
+      </c>
       <c r="M21" s="154" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N21" s="144" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O21" s="178"/>
       <c r="P21" s="74"/>
@@ -15497,22 +15526,22 @@
     </row>
     <row r="22">
       <c r="A22" s="164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="165"/>
       <c r="E22" s="179" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F22" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G22" s="165"/>
       <c r="H22" s="167" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I22" s="165"/>
       <c r="J22" s="165"/>
@@ -15545,46 +15574,46 @@
     </row>
     <row r="23">
       <c r="A23" s="180" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B23" s="180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C23" s="180" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E23" s="181" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F23" s="180" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G23" s="182">
         <v>3.0</v>
       </c>
       <c r="H23" s="183" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I23" s="180"/>
       <c r="J23" s="184"/>
       <c r="K23" s="181" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L23" s="185" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M23" s="186" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N23" s="181" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O23" s="184"/>
       <c r="P23" s="184" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="184"/>
       <c r="R23" s="184"/>
@@ -15609,48 +15638,48 @@
     </row>
     <row r="24">
       <c r="A24" s="180" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B24" s="180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C24" s="180" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D24" s="180" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E24" s="181" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F24" s="180" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G24" s="182">
         <v>2.0</v>
       </c>
       <c r="H24" s="183" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I24" s="180"/>
       <c r="J24" s="184"/>
       <c r="K24" s="181" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L24" s="181" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M24" s="186" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N24" s="181" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O24" s="188" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P24" s="184" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="184"/>
       <c r="R24" s="184"/>
@@ -15675,22 +15704,22 @@
     </row>
     <row r="25">
       <c r="A25" s="180" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B25" s="180" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C25" s="180" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E25" s="181" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F25" s="180" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G25" s="182">
         <v>2.0</v>
@@ -15699,16 +15728,16 @@
       <c r="I25" s="180"/>
       <c r="J25" s="184"/>
       <c r="K25" s="181" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L25" s="188" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M25" s="186" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N25" s="181" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O25" s="184"/>
       <c r="P25" s="184"/>
@@ -15735,22 +15764,22 @@
     </row>
     <row r="26">
       <c r="A26" s="164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B26" s="165" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C26" s="165"/>
       <c r="D26" s="165"/>
       <c r="E26" s="166" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F26" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G26" s="165"/>
       <c r="H26" s="190" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I26" s="165"/>
       <c r="J26" s="165"/>
@@ -15783,26 +15812,26 @@
     </row>
     <row r="27">
       <c r="A27" s="191" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B27" s="191" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C27" s="191"/>
       <c r="D27" s="191" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E27" s="175" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F27" s="176" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G27" s="192">
         <v>4.0</v>
       </c>
       <c r="H27" s="193" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I27" s="191"/>
       <c r="J27" s="174"/>
@@ -15810,13 +15839,13 @@
         <v>106</v>
       </c>
       <c r="L27" s="192" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M27" s="175" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N27" s="192" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O27" s="191"/>
       <c r="P27" s="194"/>
@@ -15843,28 +15872,28 @@
     </row>
     <row r="28">
       <c r="A28" s="144" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B28" s="144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C28" s="144" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D28" s="144" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E28" s="146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F28" s="144" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G28" s="152">
         <v>1.0</v>
       </c>
       <c r="H28" s="195" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I28" s="144"/>
       <c r="J28" s="75"/>
@@ -15872,16 +15901,16 @@
         <v>41</v>
       </c>
       <c r="L28" s="146" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M28" s="154" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N28" s="146" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O28" s="146" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P28" s="75"/>
       <c r="Q28" s="75"/>
@@ -15907,42 +15936,42 @@
     </row>
     <row r="29">
       <c r="A29" s="155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B29" s="155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C29" s="155" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D29" s="155" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E29" s="157" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F29" s="155" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G29" s="196">
         <v>3.0</v>
       </c>
       <c r="H29" s="197" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I29" s="155"/>
       <c r="J29" s="77"/>
       <c r="K29" s="198" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L29" s="83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M29" s="159" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N29" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O29" s="155"/>
       <c r="P29" s="160"/>
@@ -15969,42 +15998,42 @@
     </row>
     <row r="30">
       <c r="A30" s="155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B30" s="155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C30" s="155" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D30" s="155" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E30" s="157" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F30" s="155" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G30" s="196">
         <v>3.0</v>
       </c>
       <c r="H30" s="197" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I30" s="155"/>
       <c r="J30" s="77"/>
       <c r="K30" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L30" s="83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M30" s="159" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N30" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O30" s="77"/>
       <c r="P30" s="160"/>
@@ -16031,42 +16060,42 @@
     </row>
     <row r="31">
       <c r="A31" s="155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B31" s="155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C31" s="155" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D31" s="155" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E31" s="157" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F31" s="155" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G31" s="196">
         <v>3.0</v>
       </c>
       <c r="H31" s="197" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I31" s="155"/>
       <c r="J31" s="77"/>
       <c r="K31" s="198" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L31" s="83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M31" s="159" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N31" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O31" s="155"/>
       <c r="P31" s="77"/>
@@ -16093,22 +16122,22 @@
     </row>
     <row r="32">
       <c r="A32" s="164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B32" s="199" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C32" s="165"/>
       <c r="D32" s="165"/>
       <c r="E32" s="166" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F32" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G32" s="165"/>
       <c r="H32" s="190" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I32" s="165"/>
       <c r="J32" s="165"/>
@@ -16141,42 +16170,42 @@
     </row>
     <row r="33">
       <c r="A33" s="144" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B33" s="144" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C33" s="144" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D33" s="144" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E33" s="146" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F33" s="144" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G33" s="152">
         <v>3.0</v>
       </c>
       <c r="H33" s="200" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I33" s="144"/>
       <c r="J33" s="75"/>
       <c r="K33" s="149" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L33" s="146" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M33" s="154" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N33" s="146" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O33" s="144"/>
       <c r="P33" s="75"/>
@@ -16203,42 +16232,42 @@
     </row>
     <row r="34">
       <c r="A34" s="155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B34" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C34" s="155" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D34" s="155" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E34" s="157" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F34" s="155" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G34" s="196">
         <v>3.0</v>
       </c>
       <c r="H34" s="197" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I34" s="155"/>
       <c r="J34" s="77"/>
       <c r="K34" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L34" s="201" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M34" s="159" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N34" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O34" s="77"/>
       <c r="P34" s="160"/>
@@ -16265,22 +16294,22 @@
     </row>
     <row r="35">
       <c r="A35" s="155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B35" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C35" s="155" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D35" s="155" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E35" s="157" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F35" s="157" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G35" s="196">
         <v>3.0</v>
@@ -16289,16 +16318,16 @@
       <c r="I35" s="155"/>
       <c r="J35" s="77"/>
       <c r="K35" s="157" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L35" s="201" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M35" s="159" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N35" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O35" s="77"/>
       <c r="P35" s="77"/>
@@ -16325,22 +16354,22 @@
     </row>
     <row r="36">
       <c r="A36" s="164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B36" s="199" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C36" s="165"/>
       <c r="D36" s="165"/>
       <c r="E36" s="166" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F36" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G36" s="165"/>
       <c r="H36" s="190" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I36" s="165"/>
       <c r="J36" s="165"/>
@@ -16373,46 +16402,46 @@
     </row>
     <row r="37">
       <c r="A37" s="144" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B37" s="144" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C37" s="144" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D37" s="144" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E37" s="146" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F37" s="144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G37" s="152">
         <v>3.0</v>
       </c>
       <c r="H37" s="195" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
       <c r="K37" s="146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L37" s="146" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M37" s="154" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N37" s="146" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O37" s="75"/>
       <c r="P37" s="75" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Q37" s="75"/>
       <c r="R37" s="75"/>
@@ -16437,39 +16466,39 @@
     </row>
     <row r="38">
       <c r="A38" s="155" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B38" s="155" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C38" s="155" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D38" s="155" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E38" s="157" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F38" s="155" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G38" s="196">
         <v>2.0</v>
       </c>
       <c r="H38" s="197" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I38" s="155"/>
       <c r="J38" s="77"/>
       <c r="K38" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L38" s="83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M38" s="159" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N38" s="155"/>
       <c r="O38" s="77"/>
@@ -16497,42 +16526,42 @@
     </row>
     <row r="39">
       <c r="A39" s="144" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B39" s="144" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C39" s="144" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D39" s="144" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E39" s="146" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F39" s="144" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G39" s="152">
         <v>3.0</v>
       </c>
       <c r="H39" s="200" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
       <c r="K39" s="146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L39" s="153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M39" s="154" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N39" s="146" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O39" s="75"/>
       <c r="P39" s="74"/>
@@ -16559,22 +16588,22 @@
     </row>
     <row r="40">
       <c r="A40" s="164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C40" s="164"/>
       <c r="D40" s="165"/>
       <c r="E40" s="203" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F40" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G40" s="165"/>
       <c r="H40" s="190" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I40" s="204"/>
       <c r="J40" s="165"/>
@@ -16607,46 +16636,46 @@
     </row>
     <row r="41">
       <c r="A41" s="144" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B41" s="144" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C41" s="144" t="s">
+        <v>594</v>
+      </c>
+      <c r="D41" s="144" t="s">
         <v>593</v>
       </c>
-      <c r="D41" s="144" t="s">
-        <v>592</v>
-      </c>
       <c r="E41" s="146" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F41" s="144" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G41" s="152">
         <v>3.0</v>
       </c>
       <c r="H41" s="195" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
       <c r="K41" s="149" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L41" s="153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M41" s="154" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N41" s="144" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O41" s="144"/>
       <c r="P41" s="144" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Q41" s="75"/>
       <c r="R41" s="75"/>
@@ -16671,22 +16700,22 @@
     </row>
     <row r="42">
       <c r="A42" s="164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C42" s="164"/>
       <c r="D42" s="165"/>
       <c r="E42" s="166" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F42" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G42" s="165"/>
       <c r="H42" s="195" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I42" s="165"/>
       <c r="J42" s="165"/>
@@ -16719,46 +16748,46 @@
     </row>
     <row r="43">
       <c r="A43" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B43" s="155" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C43" s="155" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D43" s="155" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E43" s="157" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F43" s="155" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G43" s="196">
         <v>2.0</v>
       </c>
       <c r="H43" s="197" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I43" s="155"/>
       <c r="J43" s="77"/>
       <c r="K43" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L43" s="83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M43" s="159" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N43" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O43" s="77"/>
       <c r="P43" s="77" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q43" s="77"/>
       <c r="R43" s="77"/>
@@ -16783,22 +16812,22 @@
     </row>
     <row r="44">
       <c r="A44" s="164" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B44" s="164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C44" s="164"/>
       <c r="D44" s="165"/>
       <c r="E44" s="166" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F44" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G44" s="165"/>
       <c r="H44" s="190" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I44" s="165"/>
       <c r="J44" s="165"/>
@@ -16831,22 +16860,22 @@
     </row>
     <row r="45">
       <c r="A45" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B45" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C45" s="155" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D45" s="155" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E45" s="157" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F45" s="155" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G45" s="157">
         <v>4.0</v>
@@ -16855,20 +16884,20 @@
       <c r="I45" s="155"/>
       <c r="J45" s="77"/>
       <c r="K45" s="157" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L45" s="83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M45" s="159" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N45" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O45" s="77"/>
       <c r="P45" s="77" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Q45" s="77"/>
       <c r="R45" s="77"/>
@@ -16893,46 +16922,46 @@
     </row>
     <row r="46">
       <c r="A46" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B46" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C46" s="155" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D46" s="155" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E46" s="157" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F46" s="155" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G46" s="157">
         <v>4.0</v>
       </c>
       <c r="H46" s="197" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I46" s="155"/>
       <c r="J46" s="77"/>
       <c r="K46" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L46" s="83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M46" s="157" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N46" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O46" s="77"/>
       <c r="P46" s="77" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Q46" s="77"/>
       <c r="R46" s="77"/>
@@ -16957,42 +16986,42 @@
     </row>
     <row r="47">
       <c r="A47" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B47" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C47" s="155" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D47" s="155" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E47" s="157" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F47" s="155" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G47" s="157">
         <v>3.0</v>
       </c>
       <c r="H47" s="197" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I47" s="155"/>
       <c r="J47" s="77"/>
       <c r="K47" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L47" s="83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M47" s="159" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N47" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O47" s="77"/>
       <c r="P47" s="77"/>
@@ -17019,42 +17048,42 @@
     </row>
     <row r="48">
       <c r="A48" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B48" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C48" s="155" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D48" s="155" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E48" s="157" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F48" s="155" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G48" s="157">
         <v>3.0</v>
       </c>
       <c r="H48" s="197" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I48" s="155"/>
       <c r="J48" s="77"/>
       <c r="K48" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L48" s="83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M48" s="159" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N48" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O48" s="77"/>
       <c r="P48" s="77"/>
@@ -17081,42 +17110,42 @@
     </row>
     <row r="49">
       <c r="A49" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B49" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C49" s="155" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D49" s="155" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E49" s="157" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F49" s="155" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G49" s="157">
         <v>3.0</v>
       </c>
       <c r="H49" s="205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I49" s="155"/>
       <c r="J49" s="77"/>
       <c r="K49" s="157" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L49" s="83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M49" s="159" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N49" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O49" s="77"/>
       <c r="P49" s="77"/>
@@ -17143,46 +17172,46 @@
     </row>
     <row r="50">
       <c r="A50" s="144" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B50" s="144" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C50" s="144" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D50" s="144" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E50" s="146" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F50" s="144" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G50" s="146">
         <v>3.0</v>
       </c>
       <c r="H50" s="195" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I50" s="144"/>
       <c r="J50" s="75"/>
       <c r="K50" s="146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L50" s="153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M50" s="162" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N50" s="146" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O50" s="75"/>
       <c r="P50" s="75" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="75"/>
@@ -17207,46 +17236,46 @@
     </row>
     <row r="51">
       <c r="A51" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B51" s="155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C51" s="155" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D51" s="155" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E51" s="157" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F51" s="155" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G51" s="196">
         <v>3.0</v>
       </c>
       <c r="H51" s="201" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I51" s="155"/>
       <c r="J51" s="77"/>
       <c r="K51" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L51" s="201" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M51" s="159" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N51" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O51" s="77"/>
       <c r="P51" s="77" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q51" s="77"/>
       <c r="R51" s="77"/>
@@ -17271,22 +17300,22 @@
     </row>
     <row r="52">
       <c r="A52" s="164" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B52" s="206" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C52" s="164"/>
       <c r="D52" s="165"/>
       <c r="E52" s="166" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F52" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G52" s="165"/>
       <c r="H52" s="190" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I52" s="165"/>
       <c r="J52" s="165"/>
@@ -17319,46 +17348,46 @@
     </row>
     <row r="53">
       <c r="A53" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B53" s="155" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C53" s="155" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D53" s="155" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E53" s="157" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F53" s="155" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G53" s="196">
         <v>4.0</v>
       </c>
       <c r="H53" s="198" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I53" s="155"/>
       <c r="J53" s="77"/>
       <c r="K53" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L53" s="83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M53" s="159" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N53" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O53" s="77"/>
       <c r="P53" s="77" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q53" s="77"/>
       <c r="R53" s="77"/>
@@ -17383,22 +17412,22 @@
     </row>
     <row r="54">
       <c r="A54" s="164" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B54" s="164" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C54" s="164"/>
       <c r="D54" s="165"/>
       <c r="E54" s="179" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F54" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G54" s="165"/>
       <c r="H54" s="207" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I54" s="165"/>
       <c r="J54" s="165"/>
@@ -17431,42 +17460,42 @@
     </row>
     <row r="55">
       <c r="A55" s="155" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B55" s="155" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C55" s="155" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D55" s="155" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E55" s="157" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F55" s="155" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G55" s="196">
         <v>3.0</v>
       </c>
       <c r="H55" s="208" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I55" s="155"/>
       <c r="J55" s="77"/>
       <c r="K55" s="157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L55" s="83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M55" s="159" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="N55" s="157" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="O55" s="77"/>
       <c r="P55" s="160"/>
@@ -17493,22 +17522,22 @@
     </row>
     <row r="56">
       <c r="A56" s="164" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B56" s="164" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C56" s="164"/>
       <c r="D56" s="165"/>
       <c r="E56" s="166" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F56" s="165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G56" s="165"/>
       <c r="H56" s="207" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="I56" s="165"/>
       <c r="J56" s="165"/>
@@ -53508,11 +53537,12 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H12"/>
-    <hyperlink r:id="rId2" ref="H13"/>
-    <hyperlink r:id="rId3" ref="H21"/>
+    <hyperlink r:id="rId2" ref="H12"/>
+    <hyperlink r:id="rId3" ref="H13"/>
+    <hyperlink r:id="rId4" ref="H21"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -53537,7 +53567,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -53555,7 +53585,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="210" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3">
@@ -53623,7 +53653,7 @@
     <row r="8" ht="96.0" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -53643,10 +53673,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>32</v>
@@ -53663,13 +53693,13 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C11" s="126" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D11" s="211"/>
       <c r="E11" s="51"/>
@@ -53681,16 +53711,16 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B12" s="126" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D12" s="211" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -53699,21 +53729,21 @@
       </c>
       <c r="H12" s="53"/>
       <c r="J12" s="55" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B13" s="126" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D13" s="211" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -53724,16 +53754,16 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D14" s="211" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -53744,16 +53774,16 @@
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B15" s="126" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D15" s="211" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -53764,16 +53794,16 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D16" s="211" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>

--- a/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
+++ b/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
@@ -21,6 +21,20 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="L16">
+      <text>
+        <t xml:space="preserve">@ktokunaga@gmri.org 
+Lowかもしれないですかね。
+	-yuga kisara</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L7">
+      <text>
+        <t xml:space="preserve">@ktokunaga@gmri.org 
+ここはHighではないのではないか
+	-yuga kisara</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="D51">
       <text>
         <t xml:space="preserve">かく
@@ -32,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="697">
   <si>
     <t>Section 0 - Roll Call</t>
   </si>
@@ -521,7 +535,7 @@
 C. Mixed</t>
   </si>
   <si>
-    <t>a</t>
+    <t>b</t>
   </si>
   <si>
     <t>1.7.</t>
@@ -564,7 +578,7 @@
     </r>
   </si>
   <si>
-    <t>b</t>
+    <t>a</t>
   </si>
   <si>
     <t>C - solely expert judgement; fairly confident</t>
@@ -4374,34 +4388,7 @@
     <t>Score (1-4):</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">If </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;"/>
-        <b/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">describe, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="&quot;Times New Roman&quot;"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>write here:</t>
-    </r>
+    <t>If describe, write here:</t>
   </si>
   <si>
     <t>Importance of attribute in study system (high, medium, low):</t>
@@ -4416,7 +4403,7 @@
     <t>If not, please explain briefly:</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>Notes:</t>
   </si>
   <si>
     <t>Ecological</t>
@@ -4506,7 +4493,7 @@
     <t>アオリイカ。</t>
   </si>
   <si>
-    <t>E - No data</t>
+    <t>D - not confident that the answer provided reflects the true state of the system</t>
   </si>
   <si>
     <t>Genetic diversity enhances the potential for adaptation and confers resilience to climate change by increasing the adaptive capacity of a species, thereby providing an expanded suite of functional responses that can offer mechanisms for plasticity or evolution (Jørgensen et al., 2007; Pinsky &amp; Palumbi, 2014).</t>
@@ -4720,9 +4707,6 @@
     <t>Japanse common squid : It is highly dependent on the spawning environment.
 Migration routes also depend on seawater temperature.
 Yellowtal : NA</t>
-  </si>
-  <si>
-    <t>D - not confident that the answer provided reflects the true state of the system</t>
   </si>
   <si>
     <t>The existence, abundance, and distribution of a species is largely determined by whether the levels of one or more abiotic or biotic factors fall within the range of tolerance for that species (MacNally, 1995). Tolerance of environmental stress, such as changes in sea surface temperature, confers resilience as a species cannot functionally survive outside of its optimal range without the capacity and/or time to acclimate or build a response.</t>
@@ -7154,7 +7138,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7210,7 +7194,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7952,10 +7936,10 @@
       <c r="C18" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="61"/>
+      <c r="F18" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="61"/>
       <c r="G18" s="61"/>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
@@ -7979,10 +7963,10 @@
         <v>77</v>
       </c>
       <c r="E19" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="61" t="s">
         <v>74</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>78</v>
       </c>
       <c r="G19" s="61"/>
       <c r="H19" s="61"/>
@@ -8006,7 +7990,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
@@ -8328,7 +8312,7 @@
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12" s="71"/>
       <c r="H12" s="71"/>
@@ -8409,7 +8393,7 @@
         <v>114</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="71"/>
       <c r="G14" s="71" t="s">
@@ -8600,7 +8584,7 @@
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
@@ -8973,7 +8957,7 @@
         <v>158</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
@@ -9119,10 +9103,10 @@
         <v>168</v>
       </c>
       <c r="E33" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="71" t="s">
         <v>74</v>
-      </c>
-      <c r="F33" s="71" t="s">
-        <v>78</v>
       </c>
       <c r="G33" s="71"/>
       <c r="H33" s="71"/>
@@ -9337,10 +9321,10 @@
         <v>181</v>
       </c>
       <c r="E39" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="71" t="s">
         <v>74</v>
-      </c>
-      <c r="F39" s="71" t="s">
-        <v>78</v>
       </c>
       <c r="G39" s="71"/>
       <c r="H39" s="72"/>
@@ -9376,7 +9360,7 @@
         <v>185</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F40" s="71"/>
       <c r="G40" s="71"/>
@@ -9414,7 +9398,7 @@
       </c>
       <c r="E41" s="71"/>
       <c r="F41" s="80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G41" s="71" t="s">
         <v>99</v>
@@ -9452,7 +9436,7 @@
         <v>191</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F42" s="71"/>
       <c r="G42" s="71"/>
@@ -9490,7 +9474,7 @@
       </c>
       <c r="E43" s="71"/>
       <c r="F43" s="80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G43" s="80" t="s">
         <v>99</v>
@@ -9716,7 +9700,7 @@
       </c>
       <c r="E49" s="71"/>
       <c r="F49" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G49" s="72"/>
       <c r="H49" s="72"/>
@@ -9753,7 +9737,7 @@
       </c>
       <c r="E50" s="71"/>
       <c r="F50" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G50" s="72"/>
       <c r="H50" s="72"/>
@@ -9789,7 +9773,7 @@
         <v>215</v>
       </c>
       <c r="E51" s="71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F51" s="71"/>
       <c r="G51" s="72"/>
@@ -9829,7 +9813,7 @@
       </c>
       <c r="E52" s="71"/>
       <c r="F52" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G52" s="71" t="s">
         <v>99</v>
@@ -9867,10 +9851,10 @@
         <v>222</v>
       </c>
       <c r="E53" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="80" t="s">
         <v>74</v>
-      </c>
-      <c r="F53" s="80" t="s">
-        <v>78</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>99</v>
@@ -9915,7 +9899,7 @@
       </c>
       <c r="E54" s="71"/>
       <c r="F54" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G54" s="71"/>
       <c r="H54" s="71"/>
@@ -9995,7 +9979,7 @@
       </c>
       <c r="E56" s="71"/>
       <c r="F56" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G56" s="71"/>
       <c r="H56" s="71"/>
@@ -10031,7 +10015,7 @@
         <v>240</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F57" s="71"/>
       <c r="G57" s="71" t="s">
@@ -10070,10 +10054,10 @@
         <v>242</v>
       </c>
       <c r="E58" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="71" t="s">
         <v>74</v>
-      </c>
-      <c r="F58" s="71" t="s">
-        <v>78</v>
       </c>
       <c r="G58" s="71"/>
       <c r="H58" s="71"/>
@@ -10117,10 +10101,10 @@
         <v>247</v>
       </c>
       <c r="E59" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="80" t="s">
         <v>74</v>
-      </c>
-      <c r="F59" s="80" t="s">
-        <v>78</v>
       </c>
       <c r="G59" s="72"/>
       <c r="H59" s="72"/>
@@ -10158,10 +10142,10 @@
         <v>250</v>
       </c>
       <c r="E60" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="71" t="s">
         <v>74</v>
-      </c>
-      <c r="F60" s="71" t="s">
-        <v>78</v>
       </c>
       <c r="G60" s="71"/>
       <c r="H60" s="71"/>
@@ -10273,10 +10257,10 @@
         <v>256</v>
       </c>
       <c r="E63" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="71" t="s">
         <v>74</v>
-      </c>
-      <c r="F63" s="71" t="s">
-        <v>78</v>
       </c>
       <c r="G63" s="71"/>
       <c r="H63" s="71"/>
@@ -10313,7 +10297,7 @@
       </c>
       <c r="E64" s="71"/>
       <c r="F64" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G64" s="71" t="s">
         <v>99</v>
@@ -10461,7 +10445,7 @@
       </c>
       <c r="E68" s="71"/>
       <c r="F68" s="71" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G68" s="71"/>
       <c r="H68" s="71"/>
@@ -10829,7 +10813,7 @@
         <v>312</v>
       </c>
       <c r="E78" s="80" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F78" s="71"/>
       <c r="G78" s="71"/>
@@ -14547,49 +14531,49 @@
       <c r="AJ5" s="74"/>
     </row>
     <row r="6" ht="82.5" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="125" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="125" t="s">
         <v>399</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="125" t="s">
         <v>401</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="125" t="s">
         <v>402</v>
       </c>
       <c r="M6" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="125" t="s">
         <v>404</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="42" t="s">
         <v>405</v>
       </c>
       <c r="P6" s="42" t="s">
@@ -15074,19 +15058,19 @@
       <c r="I14" s="144"/>
       <c r="J14" s="144"/>
       <c r="K14" s="146" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L14" s="146" t="s">
         <v>423</v>
       </c>
       <c r="M14" s="146" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N14" s="146" t="s">
         <v>415</v>
       </c>
       <c r="O14" s="153" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P14" s="74"/>
       <c r="Q14" s="75"/>
@@ -15119,10 +15103,10 @@
       </c>
       <c r="C15" s="144"/>
       <c r="D15" s="144" t="s">
+        <v>467</v>
+      </c>
+      <c r="E15" s="146" t="s">
         <v>468</v>
-      </c>
-      <c r="E15" s="146" t="s">
-        <v>469</v>
       </c>
       <c r="F15" s="75" t="s">
         <v>429</v>
@@ -15131,7 +15115,7 @@
         <v>4.0</v>
       </c>
       <c r="H15" s="171" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
@@ -15142,7 +15126,7 @@
         <v>423</v>
       </c>
       <c r="M15" s="146" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N15" s="153" t="s">
         <v>433</v>
@@ -15178,13 +15162,13 @@
         <v>444</v>
       </c>
       <c r="C16" s="144" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="144" t="s">
         <v>472</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="E16" s="146" t="s">
         <v>473</v>
-      </c>
-      <c r="E16" s="146" t="s">
-        <v>474</v>
       </c>
       <c r="F16" s="144" t="s">
         <v>429</v>
@@ -15193,7 +15177,7 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="173" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I16" s="174"/>
       <c r="J16" s="174"/>
@@ -15204,7 +15188,7 @@
         <v>450</v>
       </c>
       <c r="M16" s="154" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N16" s="175"/>
       <c r="O16" s="75"/>
@@ -15238,13 +15222,13 @@
         <v>444</v>
       </c>
       <c r="C17" s="155" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="155" t="s">
         <v>477</v>
       </c>
-      <c r="D17" s="155" t="s">
+      <c r="E17" s="157" t="s">
         <v>478</v>
-      </c>
-      <c r="E17" s="157" t="s">
-        <v>479</v>
       </c>
       <c r="F17" s="155" t="s">
         <v>456</v>
@@ -15258,13 +15242,13 @@
       <c r="I17" s="155"/>
       <c r="J17" s="155"/>
       <c r="K17" s="157" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L17" s="157" t="s">
         <v>423</v>
       </c>
       <c r="M17" s="159" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N17" s="157" t="s">
         <v>433</v>
@@ -15300,13 +15284,13 @@
         <v>444</v>
       </c>
       <c r="C18" s="155" t="s">
+        <v>480</v>
+      </c>
+      <c r="D18" s="155" t="s">
         <v>481</v>
       </c>
-      <c r="D18" s="155" t="s">
+      <c r="E18" s="157" t="s">
         <v>482</v>
-      </c>
-      <c r="E18" s="157" t="s">
-        <v>483</v>
       </c>
       <c r="F18" s="155" t="s">
         <v>456</v>
@@ -15318,13 +15302,13 @@
       <c r="I18" s="155"/>
       <c r="J18" s="155"/>
       <c r="K18" s="157" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L18" s="157" t="s">
         <v>423</v>
       </c>
       <c r="M18" s="159" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N18" s="157" t="s">
         <v>433</v>
@@ -15362,14 +15346,14 @@
       <c r="C19" s="164"/>
       <c r="D19" s="165"/>
       <c r="E19" s="166" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F19" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G19" s="165"/>
       <c r="H19" s="167" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I19" s="165"/>
       <c r="J19" s="165"/>
@@ -15405,19 +15389,19 @@
         <v>407</v>
       </c>
       <c r="B20" s="155" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="155" t="s">
         <v>487</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="D20" s="155" t="s">
         <v>488</v>
       </c>
-      <c r="D20" s="155" t="s">
+      <c r="E20" s="157" t="s">
         <v>489</v>
       </c>
-      <c r="E20" s="157" t="s">
+      <c r="F20" s="155" t="s">
         <v>490</v>
-      </c>
-      <c r="F20" s="155" t="s">
-        <v>491</v>
       </c>
       <c r="G20" s="157">
         <v>3.0</v>
@@ -15426,20 +15410,20 @@
       <c r="I20" s="155"/>
       <c r="J20" s="77"/>
       <c r="K20" s="157" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L20" s="83" t="s">
         <v>450</v>
       </c>
       <c r="M20" s="159" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N20" s="177" t="s">
         <v>433</v>
       </c>
       <c r="O20" s="77"/>
       <c r="P20" s="100" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="77"/>
       <c r="R20" s="77"/>
@@ -15467,25 +15451,25 @@
         <v>407</v>
       </c>
       <c r="B21" s="144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C21" s="144" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="144" t="s">
         <v>494</v>
       </c>
-      <c r="D21" s="144" t="s">
+      <c r="E21" s="146" t="s">
         <v>495</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="F21" s="144" t="s">
         <v>496</v>
-      </c>
-      <c r="F21" s="144" t="s">
-        <v>497</v>
       </c>
       <c r="G21" s="161">
         <v>4.0</v>
       </c>
       <c r="H21" s="169" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I21" s="75"/>
       <c r="J21" s="75"/>
@@ -15496,7 +15480,7 @@
         <v>450</v>
       </c>
       <c r="M21" s="154" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N21" s="144" t="s">
         <v>439</v>
@@ -15529,19 +15513,19 @@
         <v>407</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="165"/>
       <c r="E22" s="179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F22" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G22" s="165"/>
       <c r="H22" s="167" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I22" s="165"/>
       <c r="J22" s="165"/>
@@ -15574,46 +15558,46 @@
     </row>
     <row r="23">
       <c r="A23" s="180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B23" s="180" t="s">
         <v>408</v>
       </c>
       <c r="C23" s="180" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" s="180" t="s">
         <v>503</v>
       </c>
-      <c r="D23" s="180" t="s">
+      <c r="E23" s="181" t="s">
         <v>504</v>
       </c>
-      <c r="E23" s="181" t="s">
+      <c r="F23" s="180" t="s">
         <v>505</v>
-      </c>
-      <c r="F23" s="180" t="s">
-        <v>506</v>
       </c>
       <c r="G23" s="182">
         <v>3.0</v>
       </c>
       <c r="H23" s="183" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I23" s="180"/>
       <c r="J23" s="184"/>
       <c r="K23" s="181" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L23" s="185" t="s">
         <v>450</v>
       </c>
       <c r="M23" s="186" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N23" s="181" t="s">
         <v>433</v>
       </c>
       <c r="O23" s="184"/>
       <c r="P23" s="184" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="184"/>
       <c r="R23" s="184"/>
@@ -15638,28 +15622,28 @@
     </row>
     <row r="24">
       <c r="A24" s="180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B24" s="180" t="s">
         <v>408</v>
       </c>
       <c r="C24" s="180" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="180" t="s">
         <v>510</v>
       </c>
-      <c r="D24" s="180" t="s">
+      <c r="E24" s="181" t="s">
         <v>511</v>
       </c>
-      <c r="E24" s="181" t="s">
+      <c r="F24" s="180" t="s">
         <v>512</v>
-      </c>
-      <c r="F24" s="180" t="s">
-        <v>513</v>
       </c>
       <c r="G24" s="182">
         <v>2.0</v>
       </c>
       <c r="H24" s="183" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I24" s="180"/>
       <c r="J24" s="184"/>
@@ -15670,16 +15654,16 @@
         <v>413</v>
       </c>
       <c r="M24" s="186" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N24" s="181" t="s">
         <v>433</v>
       </c>
       <c r="O24" s="188" t="s">
+        <v>515</v>
+      </c>
+      <c r="P24" s="184" t="s">
         <v>516</v>
-      </c>
-      <c r="P24" s="184" t="s">
-        <v>517</v>
       </c>
       <c r="Q24" s="184"/>
       <c r="R24" s="184"/>
@@ -15704,19 +15688,19 @@
     </row>
     <row r="25">
       <c r="A25" s="180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B25" s="180" t="s">
         <v>408</v>
       </c>
       <c r="C25" s="180" t="s">
+        <v>517</v>
+      </c>
+      <c r="D25" s="180" t="s">
         <v>518</v>
       </c>
-      <c r="D25" s="180" t="s">
+      <c r="E25" s="181" t="s">
         <v>519</v>
-      </c>
-      <c r="E25" s="181" t="s">
-        <v>520</v>
       </c>
       <c r="F25" s="180" t="s">
         <v>429</v>
@@ -15728,13 +15712,13 @@
       <c r="I25" s="180"/>
       <c r="J25" s="184"/>
       <c r="K25" s="181" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L25" s="188" t="s">
         <v>423</v>
       </c>
       <c r="M25" s="186" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N25" s="181" t="s">
         <v>433</v>
@@ -15764,7 +15748,7 @@
     </row>
     <row r="26">
       <c r="A26" s="164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B26" s="165" t="s">
         <v>408</v>
@@ -15772,14 +15756,14 @@
       <c r="C26" s="165"/>
       <c r="D26" s="165"/>
       <c r="E26" s="166" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F26" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G26" s="165"/>
       <c r="H26" s="190" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I26" s="165"/>
       <c r="J26" s="165"/>
@@ -15812,26 +15796,26 @@
     </row>
     <row r="27">
       <c r="A27" s="191" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B27" s="191" t="s">
         <v>444</v>
       </c>
       <c r="C27" s="191"/>
       <c r="D27" s="191" t="s">
+        <v>523</v>
+      </c>
+      <c r="E27" s="175" t="s">
         <v>524</v>
       </c>
-      <c r="E27" s="175" t="s">
+      <c r="F27" s="176" t="s">
         <v>525</v>
-      </c>
-      <c r="F27" s="176" t="s">
-        <v>526</v>
       </c>
       <c r="G27" s="192">
         <v>4.0</v>
       </c>
       <c r="H27" s="193" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I27" s="191"/>
       <c r="J27" s="174"/>
@@ -15842,7 +15826,7 @@
         <v>413</v>
       </c>
       <c r="M27" s="175" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N27" s="192" t="s">
         <v>439</v>
@@ -15872,28 +15856,28 @@
     </row>
     <row r="28">
       <c r="A28" s="144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B28" s="144" t="s">
         <v>444</v>
       </c>
       <c r="C28" s="144" t="s">
+        <v>528</v>
+      </c>
+      <c r="D28" s="144" t="s">
         <v>529</v>
       </c>
-      <c r="D28" s="144" t="s">
+      <c r="E28" s="146" t="s">
         <v>530</v>
       </c>
-      <c r="E28" s="146" t="s">
+      <c r="F28" s="144" t="s">
         <v>531</v>
-      </c>
-      <c r="F28" s="144" t="s">
-        <v>532</v>
       </c>
       <c r="G28" s="152">
         <v>1.0</v>
       </c>
       <c r="H28" s="195" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I28" s="144"/>
       <c r="J28" s="75"/>
@@ -15904,13 +15888,13 @@
         <v>413</v>
       </c>
       <c r="M28" s="154" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N28" s="146" t="s">
         <v>415</v>
       </c>
       <c r="O28" s="146" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P28" s="75"/>
       <c r="Q28" s="75"/>
@@ -15936,28 +15920,28 @@
     </row>
     <row r="29">
       <c r="A29" s="155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B29" s="155" t="s">
         <v>444</v>
       </c>
       <c r="C29" s="155" t="s">
+        <v>535</v>
+      </c>
+      <c r="D29" s="155" t="s">
         <v>536</v>
       </c>
-      <c r="D29" s="155" t="s">
+      <c r="E29" s="157" t="s">
         <v>537</v>
       </c>
-      <c r="E29" s="157" t="s">
+      <c r="F29" s="155" t="s">
         <v>538</v>
-      </c>
-      <c r="F29" s="155" t="s">
-        <v>539</v>
       </c>
       <c r="G29" s="196">
         <v>3.0</v>
       </c>
       <c r="H29" s="197" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I29" s="155"/>
       <c r="J29" s="77"/>
@@ -15968,7 +15952,7 @@
         <v>450</v>
       </c>
       <c r="M29" s="159" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N29" s="157" t="s">
         <v>433</v>
@@ -15998,28 +15982,28 @@
     </row>
     <row r="30">
       <c r="A30" s="155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B30" s="155" t="s">
         <v>444</v>
       </c>
       <c r="C30" s="155" t="s">
+        <v>541</v>
+      </c>
+      <c r="D30" s="155" t="s">
         <v>542</v>
       </c>
-      <c r="D30" s="155" t="s">
+      <c r="E30" s="157" t="s">
         <v>543</v>
       </c>
-      <c r="E30" s="157" t="s">
+      <c r="F30" s="155" t="s">
         <v>544</v>
-      </c>
-      <c r="F30" s="155" t="s">
-        <v>545</v>
       </c>
       <c r="G30" s="196">
         <v>3.0</v>
       </c>
       <c r="H30" s="197" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I30" s="155"/>
       <c r="J30" s="77"/>
@@ -16030,7 +16014,7 @@
         <v>413</v>
       </c>
       <c r="M30" s="159" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N30" s="157" t="s">
         <v>433</v>
@@ -16060,28 +16044,28 @@
     </row>
     <row r="31">
       <c r="A31" s="155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B31" s="155" t="s">
         <v>444</v>
       </c>
       <c r="C31" s="155" t="s">
+        <v>547</v>
+      </c>
+      <c r="D31" s="155" t="s">
         <v>548</v>
       </c>
-      <c r="D31" s="155" t="s">
+      <c r="E31" s="157" t="s">
         <v>549</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="F31" s="155" t="s">
         <v>550</v>
-      </c>
-      <c r="F31" s="155" t="s">
-        <v>551</v>
       </c>
       <c r="G31" s="196">
         <v>3.0</v>
       </c>
       <c r="H31" s="197" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I31" s="155"/>
       <c r="J31" s="77"/>
@@ -16092,7 +16076,7 @@
         <v>413</v>
       </c>
       <c r="M31" s="159" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N31" s="157" t="s">
         <v>433</v>
@@ -16122,7 +16106,7 @@
     </row>
     <row r="32">
       <c r="A32" s="164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B32" s="199" t="s">
         <v>444</v>
@@ -16130,14 +16114,14 @@
       <c r="C32" s="165"/>
       <c r="D32" s="165"/>
       <c r="E32" s="166" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F32" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G32" s="165"/>
       <c r="H32" s="190" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I32" s="165"/>
       <c r="J32" s="165"/>
@@ -16170,28 +16154,28 @@
     </row>
     <row r="33">
       <c r="A33" s="144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B33" s="144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C33" s="144" t="s">
+        <v>555</v>
+      </c>
+      <c r="D33" s="144" t="s">
         <v>556</v>
       </c>
-      <c r="D33" s="144" t="s">
+      <c r="E33" s="146" t="s">
         <v>557</v>
       </c>
-      <c r="E33" s="146" t="s">
+      <c r="F33" s="144" t="s">
         <v>558</v>
-      </c>
-      <c r="F33" s="144" t="s">
-        <v>559</v>
       </c>
       <c r="G33" s="152">
         <v>3.0</v>
       </c>
       <c r="H33" s="200" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I33" s="144"/>
       <c r="J33" s="75"/>
@@ -16202,7 +16186,7 @@
         <v>450</v>
       </c>
       <c r="M33" s="154" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N33" s="146" t="s">
         <v>433</v>
@@ -16232,28 +16216,28 @@
     </row>
     <row r="34">
       <c r="A34" s="155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B34" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C34" s="155" t="s">
+        <v>561</v>
+      </c>
+      <c r="D34" s="155" t="s">
         <v>562</v>
       </c>
-      <c r="D34" s="155" t="s">
+      <c r="E34" s="157" t="s">
         <v>563</v>
       </c>
-      <c r="E34" s="157" t="s">
-        <v>564</v>
-      </c>
       <c r="F34" s="155" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G34" s="196">
         <v>3.0</v>
       </c>
       <c r="H34" s="197" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I34" s="155"/>
       <c r="J34" s="77"/>
@@ -16264,7 +16248,7 @@
         <v>450</v>
       </c>
       <c r="M34" s="159" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N34" s="157" t="s">
         <v>433</v>
@@ -16294,22 +16278,22 @@
     </row>
     <row r="35">
       <c r="A35" s="155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B35" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C35" s="155" t="s">
+        <v>566</v>
+      </c>
+      <c r="D35" s="155" t="s">
         <v>567</v>
       </c>
-      <c r="D35" s="155" t="s">
+      <c r="E35" s="157" t="s">
         <v>568</v>
       </c>
-      <c r="E35" s="157" t="s">
+      <c r="F35" s="157" t="s">
         <v>569</v>
-      </c>
-      <c r="F35" s="157" t="s">
-        <v>570</v>
       </c>
       <c r="G35" s="196">
         <v>3.0</v>
@@ -16318,13 +16302,13 @@
       <c r="I35" s="155"/>
       <c r="J35" s="77"/>
       <c r="K35" s="157" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L35" s="201" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="M35" s="159" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N35" s="157" t="s">
         <v>433</v>
@@ -16354,22 +16338,22 @@
     </row>
     <row r="36">
       <c r="A36" s="164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B36" s="199" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C36" s="165"/>
       <c r="D36" s="165"/>
       <c r="E36" s="166" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F36" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G36" s="165"/>
       <c r="H36" s="190" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I36" s="165"/>
       <c r="J36" s="165"/>
@@ -16402,19 +16386,19 @@
     </row>
     <row r="37">
       <c r="A37" s="144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B37" s="144" t="s">
+        <v>573</v>
+      </c>
+      <c r="C37" s="144" t="s">
         <v>574</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="D37" s="144" t="s">
         <v>575</v>
       </c>
-      <c r="D37" s="144" t="s">
+      <c r="E37" s="146" t="s">
         <v>576</v>
-      </c>
-      <c r="E37" s="146" t="s">
-        <v>577</v>
       </c>
       <c r="F37" s="144" t="s">
         <v>429</v>
@@ -16423,7 +16407,7 @@
         <v>3.0</v>
       </c>
       <c r="H37" s="195" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
@@ -16434,14 +16418,14 @@
         <v>450</v>
       </c>
       <c r="M37" s="154" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N37" s="146" t="s">
         <v>433</v>
       </c>
       <c r="O37" s="75"/>
       <c r="P37" s="75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q37" s="75"/>
       <c r="R37" s="75"/>
@@ -16466,28 +16450,28 @@
     </row>
     <row r="38">
       <c r="A38" s="155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B38" s="155" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C38" s="155" t="s">
+        <v>580</v>
+      </c>
+      <c r="D38" s="155" t="s">
         <v>581</v>
       </c>
-      <c r="D38" s="155" t="s">
+      <c r="E38" s="157" t="s">
         <v>582</v>
       </c>
-      <c r="E38" s="157" t="s">
-        <v>583</v>
-      </c>
       <c r="F38" s="155" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G38" s="196">
         <v>2.0</v>
       </c>
       <c r="H38" s="197" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I38" s="155"/>
       <c r="J38" s="77"/>
@@ -16498,7 +16482,7 @@
         <v>450</v>
       </c>
       <c r="M38" s="159" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N38" s="155"/>
       <c r="O38" s="77"/>
@@ -16526,28 +16510,28 @@
     </row>
     <row r="39">
       <c r="A39" s="144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B39" s="144" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C39" s="144" t="s">
+        <v>585</v>
+      </c>
+      <c r="D39" s="144" t="s">
         <v>586</v>
       </c>
-      <c r="D39" s="144" t="s">
+      <c r="E39" s="146" t="s">
         <v>587</v>
       </c>
-      <c r="E39" s="146" t="s">
-        <v>588</v>
-      </c>
       <c r="F39" s="144" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G39" s="152">
         <v>3.0</v>
       </c>
       <c r="H39" s="200" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
@@ -16558,7 +16542,7 @@
         <v>450</v>
       </c>
       <c r="M39" s="154" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N39" s="146" t="s">
         <v>433</v>
@@ -16588,22 +16572,22 @@
     </row>
     <row r="40">
       <c r="A40" s="164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C40" s="164"/>
       <c r="D40" s="165"/>
       <c r="E40" s="203" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F40" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G40" s="165"/>
       <c r="H40" s="190" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I40" s="204"/>
       <c r="J40" s="165"/>
@@ -16636,28 +16620,28 @@
     </row>
     <row r="41">
       <c r="A41" s="144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B41" s="144" t="s">
+        <v>592</v>
+      </c>
+      <c r="C41" s="144" t="s">
         <v>593</v>
       </c>
-      <c r="C41" s="144" t="s">
+      <c r="D41" s="144" t="s">
+        <v>592</v>
+      </c>
+      <c r="E41" s="146" t="s">
         <v>594</v>
       </c>
-      <c r="D41" s="144" t="s">
-        <v>593</v>
-      </c>
-      <c r="E41" s="146" t="s">
-        <v>595</v>
-      </c>
       <c r="F41" s="144" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G41" s="152">
         <v>3.0</v>
       </c>
       <c r="H41" s="195" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
@@ -16668,14 +16652,14 @@
         <v>450</v>
       </c>
       <c r="M41" s="154" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N41" s="144" t="s">
         <v>439</v>
       </c>
       <c r="O41" s="144"/>
       <c r="P41" s="144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q41" s="75"/>
       <c r="R41" s="75"/>
@@ -16700,22 +16684,22 @@
     </row>
     <row r="42">
       <c r="A42" s="164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C42" s="164"/>
       <c r="D42" s="165"/>
       <c r="E42" s="166" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F42" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G42" s="165"/>
       <c r="H42" s="195" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I42" s="165"/>
       <c r="J42" s="165"/>
@@ -16748,28 +16732,28 @@
     </row>
     <row r="43">
       <c r="A43" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B43" s="155" t="s">
         <v>444</v>
       </c>
       <c r="C43" s="155" t="s">
+        <v>600</v>
+      </c>
+      <c r="D43" s="155" t="s">
         <v>601</v>
       </c>
-      <c r="D43" s="155" t="s">
+      <c r="E43" s="157" t="s">
         <v>602</v>
       </c>
-      <c r="E43" s="157" t="s">
+      <c r="F43" s="155" t="s">
         <v>603</v>
-      </c>
-      <c r="F43" s="155" t="s">
-        <v>604</v>
       </c>
       <c r="G43" s="196">
         <v>2.0</v>
       </c>
       <c r="H43" s="197" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I43" s="155"/>
       <c r="J43" s="77"/>
@@ -16780,14 +16764,14 @@
         <v>413</v>
       </c>
       <c r="M43" s="159" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N43" s="157" t="s">
         <v>433</v>
       </c>
       <c r="O43" s="77"/>
       <c r="P43" s="77" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q43" s="77"/>
       <c r="R43" s="77"/>
@@ -16812,7 +16796,7 @@
     </row>
     <row r="44">
       <c r="A44" s="164" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B44" s="164" t="s">
         <v>444</v>
@@ -16820,14 +16804,14 @@
       <c r="C44" s="164"/>
       <c r="D44" s="165"/>
       <c r="E44" s="166" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F44" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G44" s="165"/>
       <c r="H44" s="190" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I44" s="165"/>
       <c r="J44" s="165"/>
@@ -16860,22 +16844,22 @@
     </row>
     <row r="45">
       <c r="A45" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B45" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" s="155" t="s">
+        <v>609</v>
+      </c>
+      <c r="D45" s="155" t="s">
         <v>610</v>
       </c>
-      <c r="D45" s="155" t="s">
+      <c r="E45" s="157" t="s">
         <v>611</v>
       </c>
-      <c r="E45" s="157" t="s">
+      <c r="F45" s="155" t="s">
         <v>612</v>
-      </c>
-      <c r="F45" s="155" t="s">
-        <v>613</v>
       </c>
       <c r="G45" s="157">
         <v>4.0</v>
@@ -16884,20 +16868,20 @@
       <c r="I45" s="155"/>
       <c r="J45" s="77"/>
       <c r="K45" s="157" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L45" s="83" t="s">
         <v>450</v>
       </c>
       <c r="M45" s="159" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N45" s="157" t="s">
         <v>433</v>
       </c>
       <c r="O45" s="77"/>
       <c r="P45" s="77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q45" s="77"/>
       <c r="R45" s="77"/>
@@ -16922,28 +16906,28 @@
     </row>
     <row r="46">
       <c r="A46" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B46" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C46" s="155" t="s">
+        <v>615</v>
+      </c>
+      <c r="D46" s="155" t="s">
         <v>616</v>
       </c>
-      <c r="D46" s="155" t="s">
+      <c r="E46" s="157" t="s">
         <v>617</v>
       </c>
-      <c r="E46" s="157" t="s">
+      <c r="F46" s="155" t="s">
         <v>618</v>
-      </c>
-      <c r="F46" s="155" t="s">
-        <v>619</v>
       </c>
       <c r="G46" s="157">
         <v>4.0</v>
       </c>
       <c r="H46" s="197" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I46" s="155"/>
       <c r="J46" s="77"/>
@@ -16954,14 +16938,14 @@
         <v>413</v>
       </c>
       <c r="M46" s="157" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N46" s="157" t="s">
         <v>433</v>
       </c>
       <c r="O46" s="77"/>
       <c r="P46" s="77" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q46" s="77"/>
       <c r="R46" s="77"/>
@@ -16986,28 +16970,28 @@
     </row>
     <row r="47">
       <c r="A47" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B47" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C47" s="155" t="s">
+        <v>622</v>
+      </c>
+      <c r="D47" s="155" t="s">
         <v>623</v>
       </c>
-      <c r="D47" s="155" t="s">
+      <c r="E47" s="157" t="s">
         <v>624</v>
       </c>
-      <c r="E47" s="157" t="s">
+      <c r="F47" s="155" t="s">
         <v>625</v>
-      </c>
-      <c r="F47" s="155" t="s">
-        <v>626</v>
       </c>
       <c r="G47" s="157">
         <v>3.0</v>
       </c>
       <c r="H47" s="197" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I47" s="155"/>
       <c r="J47" s="77"/>
@@ -17018,7 +17002,7 @@
         <v>450</v>
       </c>
       <c r="M47" s="159" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N47" s="157" t="s">
         <v>433</v>
@@ -17048,28 +17032,28 @@
     </row>
     <row r="48">
       <c r="A48" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B48" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C48" s="155" t="s">
+        <v>627</v>
+      </c>
+      <c r="D48" s="155" t="s">
         <v>628</v>
       </c>
-      <c r="D48" s="155" t="s">
+      <c r="E48" s="157" t="s">
         <v>629</v>
       </c>
-      <c r="E48" s="157" t="s">
+      <c r="F48" s="155" t="s">
         <v>630</v>
-      </c>
-      <c r="F48" s="155" t="s">
-        <v>631</v>
       </c>
       <c r="G48" s="157">
         <v>3.0</v>
       </c>
       <c r="H48" s="197" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I48" s="155"/>
       <c r="J48" s="77"/>
@@ -17080,7 +17064,7 @@
         <v>450</v>
       </c>
       <c r="M48" s="159" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N48" s="157" t="s">
         <v>433</v>
@@ -17110,39 +17094,39 @@
     </row>
     <row r="49">
       <c r="A49" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B49" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C49" s="155" t="s">
+        <v>633</v>
+      </c>
+      <c r="D49" s="155" t="s">
         <v>634</v>
       </c>
-      <c r="D49" s="155" t="s">
+      <c r="E49" s="157" t="s">
         <v>635</v>
       </c>
-      <c r="E49" s="157" t="s">
+      <c r="F49" s="155" t="s">
         <v>636</v>
-      </c>
-      <c r="F49" s="155" t="s">
-        <v>637</v>
       </c>
       <c r="G49" s="157">
         <v>3.0</v>
       </c>
       <c r="H49" s="205" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I49" s="155"/>
       <c r="J49" s="77"/>
       <c r="K49" s="157" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L49" s="83" t="s">
         <v>450</v>
       </c>
       <c r="M49" s="159" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N49" s="157" t="s">
         <v>433</v>
@@ -17172,28 +17156,28 @@
     </row>
     <row r="50">
       <c r="A50" s="144" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B50" s="144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C50" s="144" t="s">
+        <v>639</v>
+      </c>
+      <c r="D50" s="144" t="s">
         <v>640</v>
       </c>
-      <c r="D50" s="144" t="s">
+      <c r="E50" s="146" t="s">
         <v>641</v>
       </c>
-      <c r="E50" s="146" t="s">
+      <c r="F50" s="144" t="s">
         <v>642</v>
-      </c>
-      <c r="F50" s="144" t="s">
-        <v>643</v>
       </c>
       <c r="G50" s="146">
         <v>3.0</v>
       </c>
       <c r="H50" s="195" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I50" s="144"/>
       <c r="J50" s="75"/>
@@ -17204,14 +17188,14 @@
         <v>450</v>
       </c>
       <c r="M50" s="162" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N50" s="146" t="s">
         <v>433</v>
       </c>
       <c r="O50" s="75"/>
       <c r="P50" s="75" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="75"/>
@@ -17236,28 +17220,28 @@
     </row>
     <row r="51">
       <c r="A51" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B51" s="155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C51" s="155" t="s">
+        <v>646</v>
+      </c>
+      <c r="D51" s="155" t="s">
         <v>647</v>
       </c>
-      <c r="D51" s="155" t="s">
+      <c r="E51" s="157" t="s">
         <v>648</v>
       </c>
-      <c r="E51" s="157" t="s">
+      <c r="F51" s="155" t="s">
         <v>649</v>
-      </c>
-      <c r="F51" s="155" t="s">
-        <v>650</v>
       </c>
       <c r="G51" s="196">
         <v>3.0</v>
       </c>
       <c r="H51" s="201" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I51" s="155"/>
       <c r="J51" s="77"/>
@@ -17268,14 +17252,14 @@
         <v>413</v>
       </c>
       <c r="M51" s="159" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N51" s="157" t="s">
         <v>433</v>
       </c>
       <c r="O51" s="77"/>
       <c r="P51" s="77" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q51" s="77"/>
       <c r="R51" s="77"/>
@@ -17300,22 +17284,22 @@
     </row>
     <row r="52">
       <c r="A52" s="164" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B52" s="206" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C52" s="164"/>
       <c r="D52" s="165"/>
       <c r="E52" s="166" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F52" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G52" s="165"/>
       <c r="H52" s="190" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I52" s="165"/>
       <c r="J52" s="165"/>
@@ -17348,28 +17332,28 @@
     </row>
     <row r="53">
       <c r="A53" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B53" s="155" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C53" s="155" t="s">
+        <v>654</v>
+      </c>
+      <c r="D53" s="155" t="s">
         <v>655</v>
       </c>
-      <c r="D53" s="155" t="s">
+      <c r="E53" s="157" t="s">
         <v>656</v>
       </c>
-      <c r="E53" s="157" t="s">
+      <c r="F53" s="155" t="s">
         <v>657</v>
-      </c>
-      <c r="F53" s="155" t="s">
-        <v>658</v>
       </c>
       <c r="G53" s="196">
         <v>4.0</v>
       </c>
       <c r="H53" s="198" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I53" s="155"/>
       <c r="J53" s="77"/>
@@ -17380,14 +17364,14 @@
         <v>413</v>
       </c>
       <c r="M53" s="159" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N53" s="157" t="s">
         <v>433</v>
       </c>
       <c r="O53" s="77"/>
       <c r="P53" s="77" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q53" s="77"/>
       <c r="R53" s="77"/>
@@ -17412,22 +17396,22 @@
     </row>
     <row r="54">
       <c r="A54" s="164" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B54" s="164" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C54" s="164"/>
       <c r="D54" s="165"/>
       <c r="E54" s="179" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F54" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G54" s="165"/>
       <c r="H54" s="207" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I54" s="165"/>
       <c r="J54" s="165"/>
@@ -17460,28 +17444,28 @@
     </row>
     <row r="55">
       <c r="A55" s="155" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B55" s="155" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C55" s="155" t="s">
+        <v>661</v>
+      </c>
+      <c r="D55" s="155" t="s">
         <v>662</v>
       </c>
-      <c r="D55" s="155" t="s">
+      <c r="E55" s="157" t="s">
         <v>663</v>
       </c>
-      <c r="E55" s="157" t="s">
+      <c r="F55" s="155" t="s">
         <v>664</v>
-      </c>
-      <c r="F55" s="155" t="s">
-        <v>665</v>
       </c>
       <c r="G55" s="196">
         <v>3.0</v>
       </c>
       <c r="H55" s="208" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I55" s="155"/>
       <c r="J55" s="77"/>
@@ -17492,7 +17476,7 @@
         <v>450</v>
       </c>
       <c r="M55" s="159" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N55" s="157" t="s">
         <v>433</v>
@@ -17522,22 +17506,22 @@
     </row>
     <row r="56">
       <c r="A56" s="164" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B56" s="164" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C56" s="164"/>
       <c r="D56" s="165"/>
       <c r="E56" s="166" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F56" s="165" t="s">
         <v>442</v>
       </c>
       <c r="G56" s="165"/>
       <c r="H56" s="207" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I56" s="165"/>
       <c r="J56" s="165"/>
@@ -53567,7 +53551,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -53585,7 +53569,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="210" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3">
@@ -53653,7 +53637,7 @@
     <row r="8" ht="96.0" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -53673,10 +53657,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="125" t="s">
+        <v>672</v>
+      </c>
+      <c r="D10" s="125" t="s">
         <v>673</v>
-      </c>
-      <c r="D10" s="125" t="s">
-        <v>674</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>32</v>
@@ -53693,13 +53677,13 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
+        <v>674</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>675</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="C11" s="126" t="s">
         <v>676</v>
-      </c>
-      <c r="C11" s="126" t="s">
-        <v>677</v>
       </c>
       <c r="D11" s="211"/>
       <c r="E11" s="51"/>
@@ -53711,16 +53695,16 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="B12" s="126" t="s">
         <v>678</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="C12" s="126" t="s">
         <v>679</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="D12" s="211" t="s">
         <v>680</v>
-      </c>
-      <c r="D12" s="211" t="s">
-        <v>681</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -53729,21 +53713,21 @@
       </c>
       <c r="H12" s="53"/>
       <c r="J12" s="55" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
+        <v>682</v>
+      </c>
+      <c r="B13" s="126" t="s">
         <v>683</v>
       </c>
-      <c r="B13" s="126" t="s">
+      <c r="C13" s="48" t="s">
         <v>684</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="D13" s="211" t="s">
         <v>685</v>
-      </c>
-      <c r="D13" s="211" t="s">
-        <v>686</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
@@ -53754,16 +53738,16 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>687</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="C14" s="48" t="s">
         <v>688</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="D14" s="211" t="s">
         <v>689</v>
-      </c>
-      <c r="D14" s="211" t="s">
-        <v>690</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -53774,16 +53758,16 @@
     </row>
     <row r="15">
       <c r="A15" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="B15" s="126" t="s">
         <v>691</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="C15" s="126" t="s">
         <v>692</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="D15" s="211" t="s">
         <v>693</v>
-      </c>
-      <c r="D15" s="211" t="s">
-        <v>694</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -53794,16 +53778,16 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
+        <v>694</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>695</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="C16" s="48" t="s">
         <v>696</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>697</v>
-      </c>
       <c r="D16" s="211" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>

--- a/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
+++ b/case_study_analysis/make_clean_data/raw/Mar 19_Copy of Yuga and Gaku@Japan SNAPP Case Study  - March 19, 10_03 AM.xlsx
@@ -7138,7 +7138,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7166,7 +7166,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7194,7 +7194,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7222,7 +7222,7 @@
     <xdr:ext cx="3105150" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
